--- a/Resource/excel/task.xlsx
+++ b/Resource/excel/task.xlsx
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -437,6 +437,22 @@
   </si>
   <si>
     <t>13-00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LuaFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LuaFunction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务接完后调用脚本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用函数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -877,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U6"/>
+  <dimension ref="B1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -904,9 +920,11 @@
     <col min="18" max="18" width="23.625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:22" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>31</v>
       </c>
@@ -964,8 +982,14 @@
       <c r="T1" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="U1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="2:21" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:22" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>32</v>
       </c>
@@ -1023,14 +1047,20 @@
       <c r="T2" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="U2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="2:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="2:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:22" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
@@ -1086,7 +1116,7 @@
       </c>
       <c r="U4" s="6"/>
     </row>
-    <row r="5" spans="2:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:22" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1146,7 +1176,7 @@
       </c>
       <c r="U5" s="6"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>33</v>
       </c>
